--- a/BEC/02-口语相关/英美发音不同的单词.xlsx
+++ b/BEC/02-口语相关/英美发音不同的单词.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9047" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="英美发音不同" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="241">
   <si>
     <t>单词</t>
   </si>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>n.休息厅，(剧院或旅馆的)门厅</t>
+  </si>
+  <si>
+    <t>pursuit</t>
+  </si>
+  <si>
+    <t>英/pəˈsjuːt/</t>
+  </si>
+  <si>
+    <t>美/pərˈsuːt/</t>
+  </si>
+  <si>
+    <t>n(U).追求，寻找</t>
   </si>
   <si>
     <t>英式单词</t>
@@ -1366,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,9 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1693,12 +1702,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -1725,21 +1734,21 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="31.2" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2000,7 +2009,7 @@
       <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2198,6 +2207,20 @@
       </c>
       <c r="D35" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2212,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
@@ -2228,10 +2251,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -2239,376 +2262,376 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" ht="46.8" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" ht="46.8" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" ht="31.2" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/02-口语相关/英美发音不同的单词.xlsx
+++ b/BEC/02-口语相关/英美发音不同的单词.xlsx
@@ -10,7 +10,20 @@
     <sheet name="英美发音不同" sheetId="1" r:id="rId1"/>
     <sheet name="英美写法不同" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -416,16 +429,16 @@
     <t>n.休息厅，(剧院或旅馆的)门厅</t>
   </si>
   <si>
-    <t>pursuit</t>
-  </si>
-  <si>
-    <t>英/pəˈsjuːt/</t>
-  </si>
-  <si>
-    <t>美/pərˈsuːt/</t>
-  </si>
-  <si>
-    <t>n(U).追求，寻找</t>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>英/ˈædʒaɪl/</t>
+  </si>
+  <si>
+    <t>美/ˈædʒ(ə)l/</t>
+  </si>
+  <si>
+    <t>敏捷的，灵活的</t>
   </si>
   <si>
     <t>英式单词</t>
@@ -747,7 +760,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1705,9 +1718,9 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
